--- a/master.xlsx
+++ b/master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Schedule" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Course Name</t>
   </si>
@@ -57,7 +57,16 @@
     <t>Good interview with WQ</t>
   </si>
   <si>
-    <t>Continue course idea on python standard library</t>
+    <t>Continue course idea on python standard library (this will be better)</t>
+  </si>
+  <si>
+    <t>algorithms with C++</t>
+  </si>
+  <si>
+    <t>C++ introduction</t>
+  </si>
+  <si>
+    <t>This also important for next job</t>
   </si>
 </sst>
 </file>
@@ -435,14 +444,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,6 +532,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
